--- a/image/アウトライン/アウトライン.xlsx
+++ b/image/アウトライン/アウトライン.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ris2006\Desktop\Desktop\アウトライン\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ris2006\Desktop\VSproj\BitmapTools\image\アウトライン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D1374E-E9D4-443B-94D7-CD7139E88E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95409F55-15D6-438C-90F8-855774CFDAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="1830" windowWidth="20460" windowHeight="13275" xr2:uid="{0D5805C4-CAE3-403C-95D0-07170A80E148}"/>
+    <workbookView xWindow="7575" yWindow="2025" windowWidth="20460" windowHeight="13275" activeTab="1" xr2:uid="{0D5805C4-CAE3-403C-95D0-07170A80E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="優先方向" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
   <si>
     <t>入力</t>
     <rPh sb="0" eb="2">
@@ -283,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,6 +382,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -699,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A206FAA5-1F2A-43C1-A180-52F473A9497A}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2431,4 +2459,329 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F9D218-93C2-467D-A038-D90ABF55204F}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="2.5" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18"/>
+      <c r="B2" s="33">
+        <v>7</v>
+      </c>
+      <c r="C2" s="34">
+        <v>5</v>
+      </c>
+      <c r="D2" s="35">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="33">
+        <v>5</v>
+      </c>
+      <c r="G2" s="34">
+        <v>3</v>
+      </c>
+      <c r="H2" s="35">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="18"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="38">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="36">
+        <v>7</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38">
+        <v>2</v>
+      </c>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="39">
+        <v>6</v>
+      </c>
+      <c r="C4" s="40">
+        <v>4</v>
+      </c>
+      <c r="D4" s="41">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40">
+        <v>6</v>
+      </c>
+      <c r="H4" s="41">
+        <v>4</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="33">
+        <v>3</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1</v>
+      </c>
+      <c r="D6" s="35">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="33">
+        <v>1</v>
+      </c>
+      <c r="G6" s="34">
+        <v>2</v>
+      </c>
+      <c r="H6" s="35">
+        <v>4</v>
+      </c>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="36">
+        <v>5</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="38">
+        <v>4</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="36">
+        <v>3</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38">
+        <v>6</v>
+      </c>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="39">
+        <v>7</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41">
+        <v>6</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="39">
+        <v>5</v>
+      </c>
+      <c r="G8" s="40">
+        <v>7</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="33">
+        <v>2</v>
+      </c>
+      <c r="C10" s="34">
+        <v>4</v>
+      </c>
+      <c r="D10" s="35">
+        <v>6</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="33">
+        <v>4</v>
+      </c>
+      <c r="G10" s="34">
+        <v>6</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="36">
+        <v>1</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="36">
+        <v>2</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38">
+        <v>7</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="39">
+        <v>3</v>
+      </c>
+      <c r="C12" s="40">
+        <v>5</v>
+      </c>
+      <c r="D12" s="41">
+        <v>7</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="39">
+        <v>1</v>
+      </c>
+      <c r="G12" s="40">
+        <v>3</v>
+      </c>
+      <c r="H12" s="41">
+        <v>5</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="33">
+        <v>6</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35">
+        <v>7</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34">
+        <v>7</v>
+      </c>
+      <c r="H14" s="35">
+        <v>5</v>
+      </c>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="36">
+        <v>4</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="38">
+        <v>5</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="36">
+        <v>6</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38">
+        <v>3</v>
+      </c>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="39">
+        <v>2</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1</v>
+      </c>
+      <c r="D16" s="41">
+        <v>3</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="39">
+        <v>4</v>
+      </c>
+      <c r="G16" s="40">
+        <v>2</v>
+      </c>
+      <c r="H16" s="41">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/image/アウトライン/アウトライン.xlsx
+++ b/image/アウトライン/アウトライン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ris2006\Desktop\VSproj\BitmapTools\image\アウトライン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95409F55-15D6-438C-90F8-855774CFDAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD8C725-16DF-44D1-90C6-EA4C8CA4E902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="2025" windowWidth="20460" windowHeight="13275" activeTab="1" xr2:uid="{0D5805C4-CAE3-403C-95D0-07170A80E148}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{0D5805C4-CAE3-403C-95D0-07170A80E148}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="6">
   <si>
     <t>入力</t>
     <rPh sb="0" eb="2">
@@ -284,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +375,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,31 +411,49 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -727,7 +772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A206FAA5-1F2A-43C1-A180-52F473A9497A}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -758,31 +805,31 @@
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32"/>
+      <c r="M2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="41"/>
       <c r="W2" s="15"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1138,31 +1185,31 @@
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15"/>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="32"/>
+      <c r="M14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="41"/>
       <c r="W14" s="15"/>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1457,31 +1504,31 @@
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15"/>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="32"/>
+      <c r="M26" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="41"/>
       <c r="W26" s="15"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -1780,31 +1827,31 @@
     </row>
     <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="15"/>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="32"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="41"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="32"/>
+      <c r="M38" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="41"/>
       <c r="W38" s="15"/>
     </row>
     <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -2106,31 +2153,31 @@
     </row>
     <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="15"/>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="32"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="41"/>
       <c r="L50" s="15"/>
-      <c r="M50" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="32"/>
+      <c r="M50" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="41"/>
       <c r="W50" s="15"/>
     </row>
     <row r="51" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -2463,16 +2510,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F9D218-93C2-467D-A038-D90ABF55204F}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -2482,71 +2531,163 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+    </row>
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
-      <c r="B2" s="33">
+      <c r="B2" s="30">
         <v>7</v>
       </c>
-      <c r="C2" s="34">
-        <v>5</v>
-      </c>
-      <c r="D2" s="35">
+      <c r="C2" s="31">
+        <v>5</v>
+      </c>
+      <c r="D2" s="32">
         <v>3</v>
       </c>
       <c r="E2" s="18"/>
-      <c r="F2" s="33">
-        <v>5</v>
-      </c>
-      <c r="G2" s="34">
-        <v>3</v>
-      </c>
-      <c r="H2" s="35">
+      <c r="F2" s="30">
+        <v>5</v>
+      </c>
+      <c r="G2" s="31">
+        <v>3</v>
+      </c>
+      <c r="H2" s="32">
         <v>1</v>
       </c>
       <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K2" s="18"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="32"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="46"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="18"/>
+    </row>
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="38">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="35">
         <v>1</v>
       </c>
       <c r="E3" s="18"/>
-      <c r="F3" s="36">
+      <c r="F3" s="33">
         <v>7</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38">
+      <c r="G3" s="34"/>
+      <c r="H3" s="35">
         <v>2</v>
       </c>
       <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K3" s="18"/>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="42"/>
+      <c r="V3" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="18"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="18"/>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18"/>
-      <c r="B4" s="39">
+      <c r="B4" s="36">
         <v>6</v>
       </c>
-      <c r="C4" s="40">
-        <v>4</v>
-      </c>
-      <c r="D4" s="41">
+      <c r="C4" s="37">
+        <v>4</v>
+      </c>
+      <c r="D4" s="38">
         <v>2</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40">
+      <c r="F4" s="36"/>
+      <c r="G4" s="37">
         <v>6</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="38">
         <v>4</v>
       </c>
       <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K4" s="18"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="45"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="53"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="18"/>
+    </row>
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2556,71 +2697,155 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="18"/>
-      <c r="B6" s="33">
-        <v>3</v>
-      </c>
-      <c r="C6" s="34">
-        <v>1</v>
-      </c>
-      <c r="D6" s="35">
+      <c r="B6" s="30">
+        <v>3</v>
+      </c>
+      <c r="C6" s="31">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32">
         <v>2</v>
       </c>
       <c r="E6" s="18"/>
-      <c r="F6" s="33">
-        <v>1</v>
-      </c>
-      <c r="G6" s="34">
-        <v>2</v>
-      </c>
-      <c r="H6" s="35">
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31">
+        <v>2</v>
+      </c>
+      <c r="H6" s="32">
         <v>4</v>
       </c>
       <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K6" s="18"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="32"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="46"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="18"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18"/>
-      <c r="B7" s="36">
-        <v>5</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="B7" s="33">
+        <v>5</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="35">
         <v>4</v>
       </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="36">
-        <v>3</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38">
+      <c r="F7" s="33">
+        <v>3</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35">
         <v>6</v>
       </c>
       <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="18"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="42"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="18"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18"/>
-      <c r="B8" s="39">
+      <c r="B8" s="36">
         <v>7</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41">
+      <c r="C8" s="37"/>
+      <c r="D8" s="38">
         <v>6</v>
       </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="39">
-        <v>5</v>
-      </c>
-      <c r="G8" s="40">
+      <c r="F8" s="36">
+        <v>5</v>
+      </c>
+      <c r="G8" s="37">
         <v>7</v>
       </c>
-      <c r="H8" s="41"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K8" s="18"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="53"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="18"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2630,71 +2855,155 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18"/>
-      <c r="B10" s="33">
-        <v>2</v>
-      </c>
-      <c r="C10" s="34">
-        <v>4</v>
-      </c>
-      <c r="D10" s="35">
+      <c r="B10" s="30">
+        <v>2</v>
+      </c>
+      <c r="C10" s="31">
+        <v>4</v>
+      </c>
+      <c r="D10" s="32">
         <v>6</v>
       </c>
       <c r="E10" s="18"/>
-      <c r="F10" s="33">
-        <v>4</v>
-      </c>
-      <c r="G10" s="34">
+      <c r="F10" s="30">
+        <v>4</v>
+      </c>
+      <c r="G10" s="31">
         <v>6</v>
       </c>
-      <c r="H10" s="35"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K10" s="18"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="32"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="18"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
-      <c r="B11" s="36">
-        <v>1</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="38"/>
+      <c r="B11" s="33">
+        <v>1</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="35"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="36">
-        <v>2</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38">
+      <c r="F11" s="33">
+        <v>2</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35">
         <v>7</v>
       </c>
       <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K11" s="18"/>
+      <c r="L11" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="42"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="W11" s="18"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="18"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18"/>
-      <c r="B12" s="39">
-        <v>3</v>
-      </c>
-      <c r="C12" s="40">
-        <v>5</v>
-      </c>
-      <c r="D12" s="41">
+      <c r="B12" s="36">
+        <v>3</v>
+      </c>
+      <c r="C12" s="37">
+        <v>5</v>
+      </c>
+      <c r="D12" s="38">
         <v>7</v>
       </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="39">
-        <v>1</v>
-      </c>
-      <c r="G12" s="40">
-        <v>3</v>
-      </c>
-      <c r="H12" s="41">
+      <c r="F12" s="36">
+        <v>1</v>
+      </c>
+      <c r="G12" s="37">
+        <v>3</v>
+      </c>
+      <c r="H12" s="38">
         <v>5</v>
       </c>
       <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K12" s="18"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="45"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="53"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="18"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -2704,71 +3013,147 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+    </row>
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18"/>
-      <c r="B14" s="33">
+      <c r="B14" s="30">
         <v>6</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35">
+      <c r="C14" s="31"/>
+      <c r="D14" s="32">
         <v>7</v>
       </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34">
+      <c r="F14" s="30"/>
+      <c r="G14" s="31">
         <v>7</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="32">
         <v>5</v>
       </c>
       <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="18"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="32"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="18"/>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
-      <c r="B15" s="36">
-        <v>4</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="38">
+      <c r="B15" s="33">
+        <v>4</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="35">
         <v>5</v>
       </c>
       <c r="E15" s="18"/>
-      <c r="F15" s="36">
+      <c r="F15" s="33">
         <v>6</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38">
+      <c r="G15" s="34"/>
+      <c r="H15" s="35">
         <v>3</v>
       </c>
       <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K15" s="18"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="18"/>
+    </row>
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18"/>
-      <c r="B16" s="39">
-        <v>2</v>
-      </c>
-      <c r="C16" s="40">
-        <v>1</v>
-      </c>
-      <c r="D16" s="41">
+      <c r="B16" s="36">
+        <v>2</v>
+      </c>
+      <c r="C16" s="37">
+        <v>1</v>
+      </c>
+      <c r="D16" s="38">
         <v>3</v>
       </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="39">
-        <v>4</v>
-      </c>
-      <c r="G16" s="40">
-        <v>2</v>
-      </c>
-      <c r="H16" s="41">
+      <c r="F16" s="36">
+        <v>4</v>
+      </c>
+      <c r="G16" s="37">
+        <v>2</v>
+      </c>
+      <c r="H16" s="38">
         <v>1</v>
       </c>
       <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K16" s="18"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="V16" s="53"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="18"/>
+    </row>
+    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2778,6 +3163,23 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
